--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147259.037054379</v>
+        <v>2145006.95734317</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403548</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>337.0094623731605</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>97.90411925715522</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.5922292904583</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886851923</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>61.60385878691294</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888053</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>139.175595971222</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>6.632494016571004</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>131.6653792309046</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277225</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977442</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>217.6587144826193</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.7084378797713</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>198.6492978738575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203436</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.6272317888098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7774908685949</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2232.598233480554</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1863.635716540142</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.370017933392</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.581765335148</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4346,10 +4346,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520488</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2619.198073544676</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,43 +4410,43 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1021.570547268603</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1424.011591242373</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.219012098843</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,25 +4565,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124868</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124868</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
         <v>66.5121164321834</v>
@@ -4723,52 +4723,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1865.068428101712</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1643.301812671238</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1354.198945796882</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1099.514457590995</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W7" t="n">
-        <v>810.0972875540343</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X7" t="n">
-        <v>582.107736656017</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124868</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>553.6195264050923</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>546.6740256558888</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3318.906332703543</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1794.299215532023</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.196348657667</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.51186045178</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,52 +5273,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273905</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675054</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471471</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>712.2074993348114</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>564.2944057524182</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505294</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1207.269487630696</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>979.2799367326791</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.4873575891489</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667947</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667979</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>53.48834544997052</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020258764</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.95742156328504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>139.4693302300329</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852546.8054811124</v>
+        <v>852546.8054811123</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852546.8054811123</v>
+        <v>852546.8054811124</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26451,7 +26451,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255373</v>
+        <v>-932387.4141255374</v>
       </c>
       <c r="C6" t="n">
-        <v>396357.3316020549</v>
+        <v>396357.3316020555</v>
       </c>
       <c r="D6" t="n">
-        <v>396357.3316020552</v>
+        <v>396357.3316020546</v>
       </c>
       <c r="E6" t="n">
-        <v>146869.3169271861</v>
+        <v>146834.5790017501</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345412</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345416</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345414</v>
+        <v>472247.0408091055</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345417</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="J6" t="n">
-        <v>254750.576337264</v>
+        <v>254715.8384118282</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345413</v>
+        <v>472247.0408091055</v>
       </c>
       <c r="L6" t="n">
-        <v>472281.7787345414</v>
+        <v>472247.0408091055</v>
       </c>
       <c r="M6" t="n">
-        <v>387226.7507990297</v>
+        <v>387192.012873594</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345416</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345415</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345414</v>
+        <v>472247.0408091056</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306527</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>69.86658336855095</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>69.34270184147262</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.11742609857882</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319978</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104186</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.1651665445289</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>73.85778156328945</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>271.7461296822315</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>197.2854761230491</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>87.88357004526461</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,19 +32072,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,13 +35741,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060438</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999025</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010414</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
